--- a/CashFlow/Z_cashflow.xlsx
+++ b/CashFlow/Z_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1353000000.0</v>
+        <v>345277000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1699000000.0</v>
+        <v>685991000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1179470000.0</v>
+        <v>417341000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>816801000.0</v>
+        <v>-208880000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>120476000.0</v>
+        <v>-673798000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-836096000.0</v>
@@ -1052,19 +1052,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>12972000.0</v>
+        <v>70000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>8744000.0</v>
+        <v>59000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>10837000.0</v>
+        <v>46828000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>19331000.0</v>
+        <v>41153000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>10898000.0</v>
+        <v>22393000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>24852000.0</v>
